--- a/Python_exercise_GT_Linkers.xlsx
+++ b/Python_exercise_GT_Linkers.xlsx
@@ -739,9 +739,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>153000</xdr:colOff>
+      <xdr:colOff>152640</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -754,8 +754,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12918960" y="5059080"/>
-          <a:ext cx="2302560" cy="2922120"/>
+          <a:off x="13262040" y="5046480"/>
+          <a:ext cx="2359080" cy="2921760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -783,12 +783,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="11" min="1" style="1" width="11.0740740740741"/>
-    <col collapsed="false" hidden="false" max="16" min="12" style="2" width="11.0740740740741"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="8.91851851851852"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="13.3259259259259"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.6185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="2" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="11" min="1" style="1" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="16" min="12" style="2" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="9.11481481481482"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="13.6222222222222"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="19.0111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="2" width="11.3666666666667"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,6 +807,7 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1830,6 +1831,1032 @@
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0"/>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+      <c r="AE3" s="0"/>
+      <c r="AF3" s="0"/>
+      <c r="AG3" s="0"/>
+      <c r="AH3" s="0"/>
+      <c r="AI3" s="0"/>
+      <c r="AJ3" s="0"/>
+      <c r="AK3" s="0"/>
+      <c r="AL3" s="0"/>
+      <c r="AM3" s="0"/>
+      <c r="AN3" s="0"/>
+      <c r="AO3" s="0"/>
+      <c r="AP3" s="0"/>
+      <c r="AQ3" s="0"/>
+      <c r="AR3" s="0"/>
+      <c r="AS3" s="0"/>
+      <c r="AT3" s="0"/>
+      <c r="AU3" s="0"/>
+      <c r="AV3" s="0"/>
+      <c r="AW3" s="0"/>
+      <c r="AX3" s="0"/>
+      <c r="AY3" s="0"/>
+      <c r="AZ3" s="0"/>
+      <c r="BA3" s="0"/>
+      <c r="BB3" s="0"/>
+      <c r="BC3" s="0"/>
+      <c r="BD3" s="0"/>
+      <c r="BE3" s="0"/>
+      <c r="BF3" s="0"/>
+      <c r="BG3" s="0"/>
+      <c r="BH3" s="0"/>
+      <c r="BI3" s="0"/>
+      <c r="BJ3" s="0"/>
+      <c r="BK3" s="0"/>
+      <c r="BL3" s="0"/>
+      <c r="BM3" s="0"/>
+      <c r="BN3" s="0"/>
+      <c r="BO3" s="0"/>
+      <c r="BP3" s="0"/>
+      <c r="BQ3" s="0"/>
+      <c r="BR3" s="0"/>
+      <c r="BS3" s="0"/>
+      <c r="BT3" s="0"/>
+      <c r="BU3" s="0"/>
+      <c r="BV3" s="0"/>
+      <c r="BW3" s="0"/>
+      <c r="BX3" s="0"/>
+      <c r="BY3" s="0"/>
+      <c r="BZ3" s="0"/>
+      <c r="CA3" s="0"/>
+      <c r="CB3" s="0"/>
+      <c r="CC3" s="0"/>
+      <c r="CD3" s="0"/>
+      <c r="CE3" s="0"/>
+      <c r="CF3" s="0"/>
+      <c r="CG3" s="0"/>
+      <c r="CH3" s="0"/>
+      <c r="CI3" s="0"/>
+      <c r="CJ3" s="0"/>
+      <c r="CK3" s="0"/>
+      <c r="CL3" s="0"/>
+      <c r="CM3" s="0"/>
+      <c r="CN3" s="0"/>
+      <c r="CO3" s="0"/>
+      <c r="CP3" s="0"/>
+      <c r="CQ3" s="0"/>
+      <c r="CR3" s="0"/>
+      <c r="CS3" s="0"/>
+      <c r="CT3" s="0"/>
+      <c r="CU3" s="0"/>
+      <c r="CV3" s="0"/>
+      <c r="CW3" s="0"/>
+      <c r="CX3" s="0"/>
+      <c r="CY3" s="0"/>
+      <c r="CZ3" s="0"/>
+      <c r="DA3" s="0"/>
+      <c r="DB3" s="0"/>
+      <c r="DC3" s="0"/>
+      <c r="DD3" s="0"/>
+      <c r="DE3" s="0"/>
+      <c r="DF3" s="0"/>
+      <c r="DG3" s="0"/>
+      <c r="DH3" s="0"/>
+      <c r="DI3" s="0"/>
+      <c r="DJ3" s="0"/>
+      <c r="DK3" s="0"/>
+      <c r="DL3" s="0"/>
+      <c r="DM3" s="0"/>
+      <c r="DN3" s="0"/>
+      <c r="DO3" s="0"/>
+      <c r="DP3" s="0"/>
+      <c r="DQ3" s="0"/>
+      <c r="DR3" s="0"/>
+      <c r="DS3" s="0"/>
+      <c r="DT3" s="0"/>
+      <c r="DU3" s="0"/>
+      <c r="DV3" s="0"/>
+      <c r="DW3" s="0"/>
+      <c r="DX3" s="0"/>
+      <c r="DY3" s="0"/>
+      <c r="DZ3" s="0"/>
+      <c r="EA3" s="0"/>
+      <c r="EB3" s="0"/>
+      <c r="EC3" s="0"/>
+      <c r="ED3" s="0"/>
+      <c r="EE3" s="0"/>
+      <c r="EF3" s="0"/>
+      <c r="EG3" s="0"/>
+      <c r="EH3" s="0"/>
+      <c r="EI3" s="0"/>
+      <c r="EJ3" s="0"/>
+      <c r="EK3" s="0"/>
+      <c r="EL3" s="0"/>
+      <c r="EM3" s="0"/>
+      <c r="EN3" s="0"/>
+      <c r="EO3" s="0"/>
+      <c r="EP3" s="0"/>
+      <c r="EQ3" s="0"/>
+      <c r="ER3" s="0"/>
+      <c r="ES3" s="0"/>
+      <c r="ET3" s="0"/>
+      <c r="EU3" s="0"/>
+      <c r="EV3" s="0"/>
+      <c r="EW3" s="0"/>
+      <c r="EX3" s="0"/>
+      <c r="EY3" s="0"/>
+      <c r="EZ3" s="0"/>
+      <c r="FA3" s="0"/>
+      <c r="FB3" s="0"/>
+      <c r="FC3" s="0"/>
+      <c r="FD3" s="0"/>
+      <c r="FE3" s="0"/>
+      <c r="FF3" s="0"/>
+      <c r="FG3" s="0"/>
+      <c r="FH3" s="0"/>
+      <c r="FI3" s="0"/>
+      <c r="FJ3" s="0"/>
+      <c r="FK3" s="0"/>
+      <c r="FL3" s="0"/>
+      <c r="FM3" s="0"/>
+      <c r="FN3" s="0"/>
+      <c r="FO3" s="0"/>
+      <c r="FP3" s="0"/>
+      <c r="FQ3" s="0"/>
+      <c r="FR3" s="0"/>
+      <c r="FS3" s="0"/>
+      <c r="FT3" s="0"/>
+      <c r="FU3" s="0"/>
+      <c r="FV3" s="0"/>
+      <c r="FW3" s="0"/>
+      <c r="FX3" s="0"/>
+      <c r="FY3" s="0"/>
+      <c r="FZ3" s="0"/>
+      <c r="GA3" s="0"/>
+      <c r="GB3" s="0"/>
+      <c r="GC3" s="0"/>
+      <c r="GD3" s="0"/>
+      <c r="GE3" s="0"/>
+      <c r="GF3" s="0"/>
+      <c r="GG3" s="0"/>
+      <c r="GH3" s="0"/>
+      <c r="GI3" s="0"/>
+      <c r="GJ3" s="0"/>
+      <c r="GK3" s="0"/>
+      <c r="GL3" s="0"/>
+      <c r="GM3" s="0"/>
+      <c r="GN3" s="0"/>
+      <c r="GO3" s="0"/>
+      <c r="GP3" s="0"/>
+      <c r="GQ3" s="0"/>
+      <c r="GR3" s="0"/>
+      <c r="GS3" s="0"/>
+      <c r="GT3" s="0"/>
+      <c r="GU3" s="0"/>
+      <c r="GV3" s="0"/>
+      <c r="GW3" s="0"/>
+      <c r="GX3" s="0"/>
+      <c r="GY3" s="0"/>
+      <c r="GZ3" s="0"/>
+      <c r="HA3" s="0"/>
+      <c r="HB3" s="0"/>
+      <c r="HC3" s="0"/>
+      <c r="HD3" s="0"/>
+      <c r="HE3" s="0"/>
+      <c r="HF3" s="0"/>
+      <c r="HG3" s="0"/>
+      <c r="HH3" s="0"/>
+      <c r="HI3" s="0"/>
+      <c r="HJ3" s="0"/>
+      <c r="HK3" s="0"/>
+      <c r="HL3" s="0"/>
+      <c r="HM3" s="0"/>
+      <c r="HN3" s="0"/>
+      <c r="HO3" s="0"/>
+      <c r="HP3" s="0"/>
+      <c r="HQ3" s="0"/>
+      <c r="HR3" s="0"/>
+      <c r="HS3" s="0"/>
+      <c r="HT3" s="0"/>
+      <c r="HU3" s="0"/>
+      <c r="HV3" s="0"/>
+      <c r="HW3" s="0"/>
+      <c r="HX3" s="0"/>
+      <c r="HY3" s="0"/>
+      <c r="HZ3" s="0"/>
+      <c r="IA3" s="0"/>
+      <c r="IB3" s="0"/>
+      <c r="IC3" s="0"/>
+      <c r="ID3" s="0"/>
+      <c r="IE3" s="0"/>
+      <c r="IF3" s="0"/>
+      <c r="IG3" s="0"/>
+      <c r="IH3" s="0"/>
+      <c r="II3" s="0"/>
+      <c r="IJ3" s="0"/>
+      <c r="IK3" s="0"/>
+      <c r="IL3" s="0"/>
+      <c r="IM3" s="0"/>
+      <c r="IN3" s="0"/>
+      <c r="IO3" s="0"/>
+      <c r="IP3" s="0"/>
+      <c r="IQ3" s="0"/>
+      <c r="IR3" s="0"/>
+      <c r="IS3" s="0"/>
+      <c r="IT3" s="0"/>
+      <c r="IU3" s="0"/>
+      <c r="IV3" s="0"/>
+      <c r="IW3" s="0"/>
+      <c r="IX3" s="0"/>
+      <c r="IY3" s="0"/>
+      <c r="IZ3" s="0"/>
+      <c r="JA3" s="0"/>
+      <c r="JB3" s="0"/>
+      <c r="JC3" s="0"/>
+      <c r="JD3" s="0"/>
+      <c r="JE3" s="0"/>
+      <c r="JF3" s="0"/>
+      <c r="JG3" s="0"/>
+      <c r="JH3" s="0"/>
+      <c r="JI3" s="0"/>
+      <c r="JJ3" s="0"/>
+      <c r="JK3" s="0"/>
+      <c r="JL3" s="0"/>
+      <c r="JM3" s="0"/>
+      <c r="JN3" s="0"/>
+      <c r="JO3" s="0"/>
+      <c r="JP3" s="0"/>
+      <c r="JQ3" s="0"/>
+      <c r="JR3" s="0"/>
+      <c r="JS3" s="0"/>
+      <c r="JT3" s="0"/>
+      <c r="JU3" s="0"/>
+      <c r="JV3" s="0"/>
+      <c r="JW3" s="0"/>
+      <c r="JX3" s="0"/>
+      <c r="JY3" s="0"/>
+      <c r="JZ3" s="0"/>
+      <c r="KA3" s="0"/>
+      <c r="KB3" s="0"/>
+      <c r="KC3" s="0"/>
+      <c r="KD3" s="0"/>
+      <c r="KE3" s="0"/>
+      <c r="KF3" s="0"/>
+      <c r="KG3" s="0"/>
+      <c r="KH3" s="0"/>
+      <c r="KI3" s="0"/>
+      <c r="KJ3" s="0"/>
+      <c r="KK3" s="0"/>
+      <c r="KL3" s="0"/>
+      <c r="KM3" s="0"/>
+      <c r="KN3" s="0"/>
+      <c r="KO3" s="0"/>
+      <c r="KP3" s="0"/>
+      <c r="KQ3" s="0"/>
+      <c r="KR3" s="0"/>
+      <c r="KS3" s="0"/>
+      <c r="KT3" s="0"/>
+      <c r="KU3" s="0"/>
+      <c r="KV3" s="0"/>
+      <c r="KW3" s="0"/>
+      <c r="KX3" s="0"/>
+      <c r="KY3" s="0"/>
+      <c r="KZ3" s="0"/>
+      <c r="LA3" s="0"/>
+      <c r="LB3" s="0"/>
+      <c r="LC3" s="0"/>
+      <c r="LD3" s="0"/>
+      <c r="LE3" s="0"/>
+      <c r="LF3" s="0"/>
+      <c r="LG3" s="0"/>
+      <c r="LH3" s="0"/>
+      <c r="LI3" s="0"/>
+      <c r="LJ3" s="0"/>
+      <c r="LK3" s="0"/>
+      <c r="LL3" s="0"/>
+      <c r="LM3" s="0"/>
+      <c r="LN3" s="0"/>
+      <c r="LO3" s="0"/>
+      <c r="LP3" s="0"/>
+      <c r="LQ3" s="0"/>
+      <c r="LR3" s="0"/>
+      <c r="LS3" s="0"/>
+      <c r="LT3" s="0"/>
+      <c r="LU3" s="0"/>
+      <c r="LV3" s="0"/>
+      <c r="LW3" s="0"/>
+      <c r="LX3" s="0"/>
+      <c r="LY3" s="0"/>
+      <c r="LZ3" s="0"/>
+      <c r="MA3" s="0"/>
+      <c r="MB3" s="0"/>
+      <c r="MC3" s="0"/>
+      <c r="MD3" s="0"/>
+      <c r="ME3" s="0"/>
+      <c r="MF3" s="0"/>
+      <c r="MG3" s="0"/>
+      <c r="MH3" s="0"/>
+      <c r="MI3" s="0"/>
+      <c r="MJ3" s="0"/>
+      <c r="MK3" s="0"/>
+      <c r="ML3" s="0"/>
+      <c r="MM3" s="0"/>
+      <c r="MN3" s="0"/>
+      <c r="MO3" s="0"/>
+      <c r="MP3" s="0"/>
+      <c r="MQ3" s="0"/>
+      <c r="MR3" s="0"/>
+      <c r="MS3" s="0"/>
+      <c r="MT3" s="0"/>
+      <c r="MU3" s="0"/>
+      <c r="MV3" s="0"/>
+      <c r="MW3" s="0"/>
+      <c r="MX3" s="0"/>
+      <c r="MY3" s="0"/>
+      <c r="MZ3" s="0"/>
+      <c r="NA3" s="0"/>
+      <c r="NB3" s="0"/>
+      <c r="NC3" s="0"/>
+      <c r="ND3" s="0"/>
+      <c r="NE3" s="0"/>
+      <c r="NF3" s="0"/>
+      <c r="NG3" s="0"/>
+      <c r="NH3" s="0"/>
+      <c r="NI3" s="0"/>
+      <c r="NJ3" s="0"/>
+      <c r="NK3" s="0"/>
+      <c r="NL3" s="0"/>
+      <c r="NM3" s="0"/>
+      <c r="NN3" s="0"/>
+      <c r="NO3" s="0"/>
+      <c r="NP3" s="0"/>
+      <c r="NQ3" s="0"/>
+      <c r="NR3" s="0"/>
+      <c r="NS3" s="0"/>
+      <c r="NT3" s="0"/>
+      <c r="NU3" s="0"/>
+      <c r="NV3" s="0"/>
+      <c r="NW3" s="0"/>
+      <c r="NX3" s="0"/>
+      <c r="NY3" s="0"/>
+      <c r="NZ3" s="0"/>
+      <c r="OA3" s="0"/>
+      <c r="OB3" s="0"/>
+      <c r="OC3" s="0"/>
+      <c r="OD3" s="0"/>
+      <c r="OE3" s="0"/>
+      <c r="OF3" s="0"/>
+      <c r="OG3" s="0"/>
+      <c r="OH3" s="0"/>
+      <c r="OI3" s="0"/>
+      <c r="OJ3" s="0"/>
+      <c r="OK3" s="0"/>
+      <c r="OL3" s="0"/>
+      <c r="OM3" s="0"/>
+      <c r="ON3" s="0"/>
+      <c r="OO3" s="0"/>
+      <c r="OP3" s="0"/>
+      <c r="OQ3" s="0"/>
+      <c r="OR3" s="0"/>
+      <c r="OS3" s="0"/>
+      <c r="OT3" s="0"/>
+      <c r="OU3" s="0"/>
+      <c r="OV3" s="0"/>
+      <c r="OW3" s="0"/>
+      <c r="OX3" s="0"/>
+      <c r="OY3" s="0"/>
+      <c r="OZ3" s="0"/>
+      <c r="PA3" s="0"/>
+      <c r="PB3" s="0"/>
+      <c r="PC3" s="0"/>
+      <c r="PD3" s="0"/>
+      <c r="PE3" s="0"/>
+      <c r="PF3" s="0"/>
+      <c r="PG3" s="0"/>
+      <c r="PH3" s="0"/>
+      <c r="PI3" s="0"/>
+      <c r="PJ3" s="0"/>
+      <c r="PK3" s="0"/>
+      <c r="PL3" s="0"/>
+      <c r="PM3" s="0"/>
+      <c r="PN3" s="0"/>
+      <c r="PO3" s="0"/>
+      <c r="PP3" s="0"/>
+      <c r="PQ3" s="0"/>
+      <c r="PR3" s="0"/>
+      <c r="PS3" s="0"/>
+      <c r="PT3" s="0"/>
+      <c r="PU3" s="0"/>
+      <c r="PV3" s="0"/>
+      <c r="PW3" s="0"/>
+      <c r="PX3" s="0"/>
+      <c r="PY3" s="0"/>
+      <c r="PZ3" s="0"/>
+      <c r="QA3" s="0"/>
+      <c r="QB3" s="0"/>
+      <c r="QC3" s="0"/>
+      <c r="QD3" s="0"/>
+      <c r="QE3" s="0"/>
+      <c r="QF3" s="0"/>
+      <c r="QG3" s="0"/>
+      <c r="QH3" s="0"/>
+      <c r="QI3" s="0"/>
+      <c r="QJ3" s="0"/>
+      <c r="QK3" s="0"/>
+      <c r="QL3" s="0"/>
+      <c r="QM3" s="0"/>
+      <c r="QN3" s="0"/>
+      <c r="QO3" s="0"/>
+      <c r="QP3" s="0"/>
+      <c r="QQ3" s="0"/>
+      <c r="QR3" s="0"/>
+      <c r="QS3" s="0"/>
+      <c r="QT3" s="0"/>
+      <c r="QU3" s="0"/>
+      <c r="QV3" s="0"/>
+      <c r="QW3" s="0"/>
+      <c r="QX3" s="0"/>
+      <c r="QY3" s="0"/>
+      <c r="QZ3" s="0"/>
+      <c r="RA3" s="0"/>
+      <c r="RB3" s="0"/>
+      <c r="RC3" s="0"/>
+      <c r="RD3" s="0"/>
+      <c r="RE3" s="0"/>
+      <c r="RF3" s="0"/>
+      <c r="RG3" s="0"/>
+      <c r="RH3" s="0"/>
+      <c r="RI3" s="0"/>
+      <c r="RJ3" s="0"/>
+      <c r="RK3" s="0"/>
+      <c r="RL3" s="0"/>
+      <c r="RM3" s="0"/>
+      <c r="RN3" s="0"/>
+      <c r="RO3" s="0"/>
+      <c r="RP3" s="0"/>
+      <c r="RQ3" s="0"/>
+      <c r="RR3" s="0"/>
+      <c r="RS3" s="0"/>
+      <c r="RT3" s="0"/>
+      <c r="RU3" s="0"/>
+      <c r="RV3" s="0"/>
+      <c r="RW3" s="0"/>
+      <c r="RX3" s="0"/>
+      <c r="RY3" s="0"/>
+      <c r="RZ3" s="0"/>
+      <c r="SA3" s="0"/>
+      <c r="SB3" s="0"/>
+      <c r="SC3" s="0"/>
+      <c r="SD3" s="0"/>
+      <c r="SE3" s="0"/>
+      <c r="SF3" s="0"/>
+      <c r="SG3" s="0"/>
+      <c r="SH3" s="0"/>
+      <c r="SI3" s="0"/>
+      <c r="SJ3" s="0"/>
+      <c r="SK3" s="0"/>
+      <c r="SL3" s="0"/>
+      <c r="SM3" s="0"/>
+      <c r="SN3" s="0"/>
+      <c r="SO3" s="0"/>
+      <c r="SP3" s="0"/>
+      <c r="SQ3" s="0"/>
+      <c r="SR3" s="0"/>
+      <c r="SS3" s="0"/>
+      <c r="ST3" s="0"/>
+      <c r="SU3" s="0"/>
+      <c r="SV3" s="0"/>
+      <c r="SW3" s="0"/>
+      <c r="SX3" s="0"/>
+      <c r="SY3" s="0"/>
+      <c r="SZ3" s="0"/>
+      <c r="TA3" s="0"/>
+      <c r="TB3" s="0"/>
+      <c r="TC3" s="0"/>
+      <c r="TD3" s="0"/>
+      <c r="TE3" s="0"/>
+      <c r="TF3" s="0"/>
+      <c r="TG3" s="0"/>
+      <c r="TH3" s="0"/>
+      <c r="TI3" s="0"/>
+      <c r="TJ3" s="0"/>
+      <c r="TK3" s="0"/>
+      <c r="TL3" s="0"/>
+      <c r="TM3" s="0"/>
+      <c r="TN3" s="0"/>
+      <c r="TO3" s="0"/>
+      <c r="TP3" s="0"/>
+      <c r="TQ3" s="0"/>
+      <c r="TR3" s="0"/>
+      <c r="TS3" s="0"/>
+      <c r="TT3" s="0"/>
+      <c r="TU3" s="0"/>
+      <c r="TV3" s="0"/>
+      <c r="TW3" s="0"/>
+      <c r="TX3" s="0"/>
+      <c r="TY3" s="0"/>
+      <c r="TZ3" s="0"/>
+      <c r="UA3" s="0"/>
+      <c r="UB3" s="0"/>
+      <c r="UC3" s="0"/>
+      <c r="UD3" s="0"/>
+      <c r="UE3" s="0"/>
+      <c r="UF3" s="0"/>
+      <c r="UG3" s="0"/>
+      <c r="UH3" s="0"/>
+      <c r="UI3" s="0"/>
+      <c r="UJ3" s="0"/>
+      <c r="UK3" s="0"/>
+      <c r="UL3" s="0"/>
+      <c r="UM3" s="0"/>
+      <c r="UN3" s="0"/>
+      <c r="UO3" s="0"/>
+      <c r="UP3" s="0"/>
+      <c r="UQ3" s="0"/>
+      <c r="UR3" s="0"/>
+      <c r="US3" s="0"/>
+      <c r="UT3" s="0"/>
+      <c r="UU3" s="0"/>
+      <c r="UV3" s="0"/>
+      <c r="UW3" s="0"/>
+      <c r="UX3" s="0"/>
+      <c r="UY3" s="0"/>
+      <c r="UZ3" s="0"/>
+      <c r="VA3" s="0"/>
+      <c r="VB3" s="0"/>
+      <c r="VC3" s="0"/>
+      <c r="VD3" s="0"/>
+      <c r="VE3" s="0"/>
+      <c r="VF3" s="0"/>
+      <c r="VG3" s="0"/>
+      <c r="VH3" s="0"/>
+      <c r="VI3" s="0"/>
+      <c r="VJ3" s="0"/>
+      <c r="VK3" s="0"/>
+      <c r="VL3" s="0"/>
+      <c r="VM3" s="0"/>
+      <c r="VN3" s="0"/>
+      <c r="VO3" s="0"/>
+      <c r="VP3" s="0"/>
+      <c r="VQ3" s="0"/>
+      <c r="VR3" s="0"/>
+      <c r="VS3" s="0"/>
+      <c r="VT3" s="0"/>
+      <c r="VU3" s="0"/>
+      <c r="VV3" s="0"/>
+      <c r="VW3" s="0"/>
+      <c r="VX3" s="0"/>
+      <c r="VY3" s="0"/>
+      <c r="VZ3" s="0"/>
+      <c r="WA3" s="0"/>
+      <c r="WB3" s="0"/>
+      <c r="WC3" s="0"/>
+      <c r="WD3" s="0"/>
+      <c r="WE3" s="0"/>
+      <c r="WF3" s="0"/>
+      <c r="WG3" s="0"/>
+      <c r="WH3" s="0"/>
+      <c r="WI3" s="0"/>
+      <c r="WJ3" s="0"/>
+      <c r="WK3" s="0"/>
+      <c r="WL3" s="0"/>
+      <c r="WM3" s="0"/>
+      <c r="WN3" s="0"/>
+      <c r="WO3" s="0"/>
+      <c r="WP3" s="0"/>
+      <c r="WQ3" s="0"/>
+      <c r="WR3" s="0"/>
+      <c r="WS3" s="0"/>
+      <c r="WT3" s="0"/>
+      <c r="WU3" s="0"/>
+      <c r="WV3" s="0"/>
+      <c r="WW3" s="0"/>
+      <c r="WX3" s="0"/>
+      <c r="WY3" s="0"/>
+      <c r="WZ3" s="0"/>
+      <c r="XA3" s="0"/>
+      <c r="XB3" s="0"/>
+      <c r="XC3" s="0"/>
+      <c r="XD3" s="0"/>
+      <c r="XE3" s="0"/>
+      <c r="XF3" s="0"/>
+      <c r="XG3" s="0"/>
+      <c r="XH3" s="0"/>
+      <c r="XI3" s="0"/>
+      <c r="XJ3" s="0"/>
+      <c r="XK3" s="0"/>
+      <c r="XL3" s="0"/>
+      <c r="XM3" s="0"/>
+      <c r="XN3" s="0"/>
+      <c r="XO3" s="0"/>
+      <c r="XP3" s="0"/>
+      <c r="XQ3" s="0"/>
+      <c r="XR3" s="0"/>
+      <c r="XS3" s="0"/>
+      <c r="XT3" s="0"/>
+      <c r="XU3" s="0"/>
+      <c r="XV3" s="0"/>
+      <c r="XW3" s="0"/>
+      <c r="XX3" s="0"/>
+      <c r="XY3" s="0"/>
+      <c r="XZ3" s="0"/>
+      <c r="YA3" s="0"/>
+      <c r="YB3" s="0"/>
+      <c r="YC3" s="0"/>
+      <c r="YD3" s="0"/>
+      <c r="YE3" s="0"/>
+      <c r="YF3" s="0"/>
+      <c r="YG3" s="0"/>
+      <c r="YH3" s="0"/>
+      <c r="YI3" s="0"/>
+      <c r="YJ3" s="0"/>
+      <c r="YK3" s="0"/>
+      <c r="YL3" s="0"/>
+      <c r="YM3" s="0"/>
+      <c r="YN3" s="0"/>
+      <c r="YO3" s="0"/>
+      <c r="YP3" s="0"/>
+      <c r="YQ3" s="0"/>
+      <c r="YR3" s="0"/>
+      <c r="YS3" s="0"/>
+      <c r="YT3" s="0"/>
+      <c r="YU3" s="0"/>
+      <c r="YV3" s="0"/>
+      <c r="YW3" s="0"/>
+      <c r="YX3" s="0"/>
+      <c r="YY3" s="0"/>
+      <c r="YZ3" s="0"/>
+      <c r="ZA3" s="0"/>
+      <c r="ZB3" s="0"/>
+      <c r="ZC3" s="0"/>
+      <c r="ZD3" s="0"/>
+      <c r="ZE3" s="0"/>
+      <c r="ZF3" s="0"/>
+      <c r="ZG3" s="0"/>
+      <c r="ZH3" s="0"/>
+      <c r="ZI3" s="0"/>
+      <c r="ZJ3" s="0"/>
+      <c r="ZK3" s="0"/>
+      <c r="ZL3" s="0"/>
+      <c r="ZM3" s="0"/>
+      <c r="ZN3" s="0"/>
+      <c r="ZO3" s="0"/>
+      <c r="ZP3" s="0"/>
+      <c r="ZQ3" s="0"/>
+      <c r="ZR3" s="0"/>
+      <c r="ZS3" s="0"/>
+      <c r="ZT3" s="0"/>
+      <c r="ZU3" s="0"/>
+      <c r="ZV3" s="0"/>
+      <c r="ZW3" s="0"/>
+      <c r="ZX3" s="0"/>
+      <c r="ZY3" s="0"/>
+      <c r="ZZ3" s="0"/>
+      <c r="AAA3" s="0"/>
+      <c r="AAB3" s="0"/>
+      <c r="AAC3" s="0"/>
+      <c r="AAD3" s="0"/>
+      <c r="AAE3" s="0"/>
+      <c r="AAF3" s="0"/>
+      <c r="AAG3" s="0"/>
+      <c r="AAH3" s="0"/>
+      <c r="AAI3" s="0"/>
+      <c r="AAJ3" s="0"/>
+      <c r="AAK3" s="0"/>
+      <c r="AAL3" s="0"/>
+      <c r="AAM3" s="0"/>
+      <c r="AAN3" s="0"/>
+      <c r="AAO3" s="0"/>
+      <c r="AAP3" s="0"/>
+      <c r="AAQ3" s="0"/>
+      <c r="AAR3" s="0"/>
+      <c r="AAS3" s="0"/>
+      <c r="AAT3" s="0"/>
+      <c r="AAU3" s="0"/>
+      <c r="AAV3" s="0"/>
+      <c r="AAW3" s="0"/>
+      <c r="AAX3" s="0"/>
+      <c r="AAY3" s="0"/>
+      <c r="AAZ3" s="0"/>
+      <c r="ABA3" s="0"/>
+      <c r="ABB3" s="0"/>
+      <c r="ABC3" s="0"/>
+      <c r="ABD3" s="0"/>
+      <c r="ABE3" s="0"/>
+      <c r="ABF3" s="0"/>
+      <c r="ABG3" s="0"/>
+      <c r="ABH3" s="0"/>
+      <c r="ABI3" s="0"/>
+      <c r="ABJ3" s="0"/>
+      <c r="ABK3" s="0"/>
+      <c r="ABL3" s="0"/>
+      <c r="ABM3" s="0"/>
+      <c r="ABN3" s="0"/>
+      <c r="ABO3" s="0"/>
+      <c r="ABP3" s="0"/>
+      <c r="ABQ3" s="0"/>
+      <c r="ABR3" s="0"/>
+      <c r="ABS3" s="0"/>
+      <c r="ABT3" s="0"/>
+      <c r="ABU3" s="0"/>
+      <c r="ABV3" s="0"/>
+      <c r="ABW3" s="0"/>
+      <c r="ABX3" s="0"/>
+      <c r="ABY3" s="0"/>
+      <c r="ABZ3" s="0"/>
+      <c r="ACA3" s="0"/>
+      <c r="ACB3" s="0"/>
+      <c r="ACC3" s="0"/>
+      <c r="ACD3" s="0"/>
+      <c r="ACE3" s="0"/>
+      <c r="ACF3" s="0"/>
+      <c r="ACG3" s="0"/>
+      <c r="ACH3" s="0"/>
+      <c r="ACI3" s="0"/>
+      <c r="ACJ3" s="0"/>
+      <c r="ACK3" s="0"/>
+      <c r="ACL3" s="0"/>
+      <c r="ACM3" s="0"/>
+      <c r="ACN3" s="0"/>
+      <c r="ACO3" s="0"/>
+      <c r="ACP3" s="0"/>
+      <c r="ACQ3" s="0"/>
+      <c r="ACR3" s="0"/>
+      <c r="ACS3" s="0"/>
+      <c r="ACT3" s="0"/>
+      <c r="ACU3" s="0"/>
+      <c r="ACV3" s="0"/>
+      <c r="ACW3" s="0"/>
+      <c r="ACX3" s="0"/>
+      <c r="ACY3" s="0"/>
+      <c r="ACZ3" s="0"/>
+      <c r="ADA3" s="0"/>
+      <c r="ADB3" s="0"/>
+      <c r="ADC3" s="0"/>
+      <c r="ADD3" s="0"/>
+      <c r="ADE3" s="0"/>
+      <c r="ADF3" s="0"/>
+      <c r="ADG3" s="0"/>
+      <c r="ADH3" s="0"/>
+      <c r="ADI3" s="0"/>
+      <c r="ADJ3" s="0"/>
+      <c r="ADK3" s="0"/>
+      <c r="ADL3" s="0"/>
+      <c r="ADM3" s="0"/>
+      <c r="ADN3" s="0"/>
+      <c r="ADO3" s="0"/>
+      <c r="ADP3" s="0"/>
+      <c r="ADQ3" s="0"/>
+      <c r="ADR3" s="0"/>
+      <c r="ADS3" s="0"/>
+      <c r="ADT3" s="0"/>
+      <c r="ADU3" s="0"/>
+      <c r="ADV3" s="0"/>
+      <c r="ADW3" s="0"/>
+      <c r="ADX3" s="0"/>
+      <c r="ADY3" s="0"/>
+      <c r="ADZ3" s="0"/>
+      <c r="AEA3" s="0"/>
+      <c r="AEB3" s="0"/>
+      <c r="AEC3" s="0"/>
+      <c r="AED3" s="0"/>
+      <c r="AEE3" s="0"/>
+      <c r="AEF3" s="0"/>
+      <c r="AEG3" s="0"/>
+      <c r="AEH3" s="0"/>
+      <c r="AEI3" s="0"/>
+      <c r="AEJ3" s="0"/>
+      <c r="AEK3" s="0"/>
+      <c r="AEL3" s="0"/>
+      <c r="AEM3" s="0"/>
+      <c r="AEN3" s="0"/>
+      <c r="AEO3" s="0"/>
+      <c r="AEP3" s="0"/>
+      <c r="AEQ3" s="0"/>
+      <c r="AER3" s="0"/>
+      <c r="AES3" s="0"/>
+      <c r="AET3" s="0"/>
+      <c r="AEU3" s="0"/>
+      <c r="AEV3" s="0"/>
+      <c r="AEW3" s="0"/>
+      <c r="AEX3" s="0"/>
+      <c r="AEY3" s="0"/>
+      <c r="AEZ3" s="0"/>
+      <c r="AFA3" s="0"/>
+      <c r="AFB3" s="0"/>
+      <c r="AFC3" s="0"/>
+      <c r="AFD3" s="0"/>
+      <c r="AFE3" s="0"/>
+      <c r="AFF3" s="0"/>
+      <c r="AFG3" s="0"/>
+      <c r="AFH3" s="0"/>
+      <c r="AFI3" s="0"/>
+      <c r="AFJ3" s="0"/>
+      <c r="AFK3" s="0"/>
+      <c r="AFL3" s="0"/>
+      <c r="AFM3" s="0"/>
+      <c r="AFN3" s="0"/>
+      <c r="AFO3" s="0"/>
+      <c r="AFP3" s="0"/>
+      <c r="AFQ3" s="0"/>
+      <c r="AFR3" s="0"/>
+      <c r="AFS3" s="0"/>
+      <c r="AFT3" s="0"/>
+      <c r="AFU3" s="0"/>
+      <c r="AFV3" s="0"/>
+      <c r="AFW3" s="0"/>
+      <c r="AFX3" s="0"/>
+      <c r="AFY3" s="0"/>
+      <c r="AFZ3" s="0"/>
+      <c r="AGA3" s="0"/>
+      <c r="AGB3" s="0"/>
+      <c r="AGC3" s="0"/>
+      <c r="AGD3" s="0"/>
+      <c r="AGE3" s="0"/>
+      <c r="AGF3" s="0"/>
+      <c r="AGG3" s="0"/>
+      <c r="AGH3" s="0"/>
+      <c r="AGI3" s="0"/>
+      <c r="AGJ3" s="0"/>
+      <c r="AGK3" s="0"/>
+      <c r="AGL3" s="0"/>
+      <c r="AGM3" s="0"/>
+      <c r="AGN3" s="0"/>
+      <c r="AGO3" s="0"/>
+      <c r="AGP3" s="0"/>
+      <c r="AGQ3" s="0"/>
+      <c r="AGR3" s="0"/>
+      <c r="AGS3" s="0"/>
+      <c r="AGT3" s="0"/>
+      <c r="AGU3" s="0"/>
+      <c r="AGV3" s="0"/>
+      <c r="AGW3" s="0"/>
+      <c r="AGX3" s="0"/>
+      <c r="AGY3" s="0"/>
+      <c r="AGZ3" s="0"/>
+      <c r="AHA3" s="0"/>
+      <c r="AHB3" s="0"/>
+      <c r="AHC3" s="0"/>
+      <c r="AHD3" s="0"/>
+      <c r="AHE3" s="0"/>
+      <c r="AHF3" s="0"/>
+      <c r="AHG3" s="0"/>
+      <c r="AHH3" s="0"/>
+      <c r="AHI3" s="0"/>
+      <c r="AHJ3" s="0"/>
+      <c r="AHK3" s="0"/>
+      <c r="AHL3" s="0"/>
+      <c r="AHM3" s="0"/>
+      <c r="AHN3" s="0"/>
+      <c r="AHO3" s="0"/>
+      <c r="AHP3" s="0"/>
+      <c r="AHQ3" s="0"/>
+      <c r="AHR3" s="0"/>
+      <c r="AHS3" s="0"/>
+      <c r="AHT3" s="0"/>
+      <c r="AHU3" s="0"/>
+      <c r="AHV3" s="0"/>
+      <c r="AHW3" s="0"/>
+      <c r="AHX3" s="0"/>
+      <c r="AHY3" s="0"/>
+      <c r="AHZ3" s="0"/>
+      <c r="AIA3" s="0"/>
+      <c r="AIB3" s="0"/>
+      <c r="AIC3" s="0"/>
+      <c r="AID3" s="0"/>
+      <c r="AIE3" s="0"/>
+      <c r="AIF3" s="0"/>
+      <c r="AIG3" s="0"/>
+      <c r="AIH3" s="0"/>
+      <c r="AII3" s="0"/>
+      <c r="AIJ3" s="0"/>
+      <c r="AIK3" s="0"/>
+      <c r="AIL3" s="0"/>
+      <c r="AIM3" s="0"/>
+      <c r="AIN3" s="0"/>
+      <c r="AIO3" s="0"/>
+      <c r="AIP3" s="0"/>
+      <c r="AIQ3" s="0"/>
+      <c r="AIR3" s="0"/>
+      <c r="AIS3" s="0"/>
+      <c r="AIT3" s="0"/>
+      <c r="AIU3" s="0"/>
+      <c r="AIV3" s="0"/>
+      <c r="AIW3" s="0"/>
+      <c r="AIX3" s="0"/>
+      <c r="AIY3" s="0"/>
+      <c r="AIZ3" s="0"/>
+      <c r="AJA3" s="0"/>
+      <c r="AJB3" s="0"/>
+      <c r="AJC3" s="0"/>
+      <c r="AJD3" s="0"/>
+      <c r="AJE3" s="0"/>
+      <c r="AJF3" s="0"/>
+      <c r="AJG3" s="0"/>
+      <c r="AJH3" s="0"/>
+      <c r="AJI3" s="0"/>
+      <c r="AJJ3" s="0"/>
+      <c r="AJK3" s="0"/>
+      <c r="AJL3" s="0"/>
+      <c r="AJM3" s="0"/>
+      <c r="AJN3" s="0"/>
+      <c r="AJO3" s="0"/>
+      <c r="AJP3" s="0"/>
+      <c r="AJQ3" s="0"/>
+      <c r="AJR3" s="0"/>
+      <c r="AJS3" s="0"/>
+      <c r="AJT3" s="0"/>
+      <c r="AJU3" s="0"/>
+      <c r="AJV3" s="0"/>
+      <c r="AJW3" s="0"/>
+      <c r="AJX3" s="0"/>
+      <c r="AJY3" s="0"/>
+      <c r="AJZ3" s="0"/>
+      <c r="AKA3" s="0"/>
+      <c r="AKB3" s="0"/>
+      <c r="AKC3" s="0"/>
+      <c r="AKD3" s="0"/>
+      <c r="AKE3" s="0"/>
+      <c r="AKF3" s="0"/>
+      <c r="AKG3" s="0"/>
+      <c r="AKH3" s="0"/>
+      <c r="AKI3" s="0"/>
+      <c r="AKJ3" s="0"/>
+      <c r="AKK3" s="0"/>
+      <c r="AKL3" s="0"/>
+      <c r="AKM3" s="0"/>
+      <c r="AKN3" s="0"/>
+      <c r="AKO3" s="0"/>
+      <c r="AKP3" s="0"/>
+      <c r="AKQ3" s="0"/>
+      <c r="AKR3" s="0"/>
+      <c r="AKS3" s="0"/>
+      <c r="AKT3" s="0"/>
+      <c r="AKU3" s="0"/>
+      <c r="AKV3" s="0"/>
+      <c r="AKW3" s="0"/>
+      <c r="AKX3" s="0"/>
+      <c r="AKY3" s="0"/>
+      <c r="AKZ3" s="0"/>
+      <c r="ALA3" s="0"/>
+      <c r="ALB3" s="0"/>
+      <c r="ALC3" s="0"/>
+      <c r="ALD3" s="0"/>
+      <c r="ALE3" s="0"/>
+      <c r="ALF3" s="0"/>
+      <c r="ALG3" s="0"/>
+      <c r="ALH3" s="0"/>
+      <c r="ALI3" s="0"/>
+      <c r="ALJ3" s="0"/>
+      <c r="ALK3" s="0"/>
+      <c r="ALL3" s="0"/>
+      <c r="ALM3" s="0"/>
+      <c r="ALN3" s="0"/>
+      <c r="ALO3" s="0"/>
+      <c r="ALP3" s="0"/>
+      <c r="ALQ3" s="0"/>
+      <c r="ALR3" s="0"/>
+      <c r="ALS3" s="0"/>
+      <c r="ALT3" s="0"/>
+      <c r="ALU3" s="0"/>
+      <c r="ALV3" s="0"/>
+      <c r="ALW3" s="0"/>
+      <c r="ALX3" s="0"/>
+      <c r="ALY3" s="0"/>
+      <c r="ALZ3" s="0"/>
+      <c r="AMA3" s="0"/>
+      <c r="AMB3" s="0"/>
+      <c r="AMC3" s="0"/>
+      <c r="AMD3" s="0"/>
+      <c r="AME3" s="0"/>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
@@ -25714,9 +26741,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9444444444444"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0740740740741"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.6333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.9740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25844,17 +26871,17 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9111111111111"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.7185185185185"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3037037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1074074074074"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.0111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.9740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25885,7 +26912,7 @@
         <v>58</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>43054.75</v>
+        <v>43058.75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25899,7 +26926,7 @@
         <v>60</v>
       </c>
       <c r="D3" s="33" t="n">
-        <v>43054.7534722222</v>
+        <v>43058.7534722222</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25910,7 +26937,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="33" t="n">
-        <v>43054.7569444444</v>
+        <v>43058.7569444444</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25924,7 +26951,7 @@
         <v>63</v>
       </c>
       <c r="D5" s="33" t="n">
-        <v>43054.7604166667</v>
+        <v>43058.7604166667</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25935,7 +26962,7 @@
         <v>64</v>
       </c>
       <c r="D6" s="33" t="n">
-        <v>43054.7638888889</v>
+        <v>43058.7638888889</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25949,7 +26976,7 @@
         <v>66</v>
       </c>
       <c r="D7" s="33" t="n">
-        <v>43054.7673611111</v>
+        <v>43058.7673611111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25963,7 +26990,7 @@
         <v>68</v>
       </c>
       <c r="D8" s="33" t="n">
-        <v>43054.7708333333</v>
+        <v>43058.7708333333</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25974,7 +27001,7 @@
         <v>69</v>
       </c>
       <c r="D9" s="33" t="n">
-        <v>43054.7743055556</v>
+        <v>43058.7743055556</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25985,7 +27012,7 @@
         <v>70</v>
       </c>
       <c r="D10" s="33" t="n">
-        <v>43054.7777777778</v>
+        <v>43058.7777777778</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25999,7 +27026,7 @@
         <v>72</v>
       </c>
       <c r="D11" s="33" t="n">
-        <v>43054.78125</v>
+        <v>43058.78125</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26013,7 +27040,7 @@
         <v>74</v>
       </c>
       <c r="D12" s="33" t="n">
-        <v>43054.7847222222</v>
+        <v>43058.7847222222</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26027,7 +27054,7 @@
         <v>76</v>
       </c>
       <c r="D13" s="33" t="n">
-        <v>43054.7881944444</v>
+        <v>43058.7881944444</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26041,7 +27068,7 @@
         <v>78</v>
       </c>
       <c r="D14" s="33" t="n">
-        <v>43054.7916666667</v>
+        <v>43058.7916666667</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26055,7 +27082,7 @@
         <v>80</v>
       </c>
       <c r="D15" s="33" t="n">
-        <v>43054.7951388889</v>
+        <v>43058.7951388889</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
